--- a/ELISA_4pl_cf/Hb_elisa_test.xlsx
+++ b/ELISA_4pl_cf/Hb_elisa_test.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wonju\Documents\WJ_Python\QM_Develop_Machinelearning\ELISA_4pl_cf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20EE0CD-5693-4900-B80F-6EE693FD8483}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0323E1-B1F4-4A75-A56F-370FC7DBB311}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B394ACD4-5E80-4743-8F8D-9C41648EC578}"/>
+    <workbookView xWindow="2700" yWindow="4200" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{B394ACD4-5E80-4743-8F8D-9C41648EC578}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>Conc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,7 +50,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -149,7 +150,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -543,7 +544,7 @@
         <v>0.505</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C7" si="0">C4/2</f>
+        <f t="shared" ref="C5" si="0">C4/2</f>
         <v>3.125</v>
       </c>
       <c r="D5">
@@ -590,7 +591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6C4E35-412B-4586-81B9-686D73608FE1}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -1107,4 +1108,163 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B99C7CF-313F-4BB1-BE91-DBFB06AE8C4C}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>2.82</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>2.7970000000000002</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>2.6829999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>1.988</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>1.5920000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>1.9490000000000001</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1.6259999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0.89300000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1.081</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="C8">
+        <v>2.5</v>
+      </c>
+      <c r="D8">
+        <v>0.497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="C9">
+        <v>2.5</v>
+      </c>
+      <c r="D9">
+        <v>0.49099999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ELISA_4pl_cf/Hb_elisa_test.xlsx
+++ b/ELISA_4pl_cf/Hb_elisa_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wonju\Documents\WJ_Python\QM_Develop_Machinelearning\ELISA_4pl_cf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0323E1-B1F4-4A75-A56F-370FC7DBB311}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D492A054-3DAD-442E-B987-E64CB1BC946E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="4200" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{B394ACD4-5E80-4743-8F8D-9C41648EC578}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B394ACD4-5E80-4743-8F8D-9C41648EC578}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Conc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,14 +43,83 @@
   <si>
     <t>Conc1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conc2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conc3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conc4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conc5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conc7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conc8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conc6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conc9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conc10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OD_value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OD_value2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OD_value3</t>
+  </si>
+  <si>
+    <t>OD_value4</t>
+  </si>
+  <si>
+    <t>OD_value5</t>
+  </si>
+  <si>
+    <t>OD_value6</t>
+  </si>
+  <si>
+    <t>OD_value7</t>
+  </si>
+  <si>
+    <t>OD_value8</t>
+  </si>
+  <si>
+    <t>OD_value9</t>
+  </si>
+  <si>
+    <t>OD_value10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -91,12 +160,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -143,7 +236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -155,6 +248,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1112,154 +1229,312 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B99C7CF-313F-4BB1-BE91-DBFB06AE8C4C}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="4">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2" s="5">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6">
+        <v>20</v>
+      </c>
+      <c r="F2" s="6">
+        <v>20</v>
+      </c>
+      <c r="G2" s="7">
+        <v>20</v>
+      </c>
+      <c r="H2" s="7">
+        <v>20</v>
+      </c>
+      <c r="K2" s="8">
+        <v>2.7909999999999999</v>
+      </c>
+      <c r="L2" s="8">
+        <v>2.64</v>
+      </c>
+      <c r="M2" s="9">
+        <v>1.944</v>
+      </c>
+      <c r="N2" s="9">
+        <v>2.0270000000000001</v>
+      </c>
+      <c r="O2" s="10">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="P2" s="10">
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>2.4470000000000001</v>
+      </c>
+      <c r="R2" s="11">
+        <v>2.403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="4">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7">
+        <v>10</v>
+      </c>
+      <c r="K3" s="8">
+        <v>2.073</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1.978</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="N3" s="9">
+        <v>1.1140000000000001</v>
+      </c>
+      <c r="O3" s="10">
+        <v>1.175</v>
+      </c>
+      <c r="P3" s="10">
+        <v>1.232</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>1.452</v>
+      </c>
+      <c r="R3" s="11">
+        <v>1.3320000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="4">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6">
+        <v>5</v>
+      </c>
+      <c r="F4" s="6">
+        <v>5</v>
+      </c>
+      <c r="G4" s="7">
+        <v>5</v>
+      </c>
+      <c r="H4" s="7">
+        <v>5</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1.1619999999999999</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1.1970000000000001</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="O4" s="10">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="P4" s="10">
+        <v>0.68</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="R4" s="11">
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="R5" s="11">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>20</v>
-      </c>
-      <c r="B2">
-        <v>2.82</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>2.7970000000000002</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>2.6829999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>1.988</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>1.5920000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>1.9490000000000001</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>1.6259999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>1.0469999999999999</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>0.89300000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1.081</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>0.58499999999999996</v>
-      </c>
-      <c r="C8">
-        <v>2.5</v>
-      </c>
-      <c r="D8">
-        <v>0.497</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="C9">
-        <v>2.5</v>
-      </c>
-      <c r="D9">
-        <v>0.49099999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="B10">
-        <v>0.32300000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>0.30499999999999999</v>
+      <c r="C6" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="O6" s="10">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="P6" s="10">
+        <v>0.23799999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/ELISA_4pl_cf/Hb_elisa_test.xlsx
+++ b/ELISA_4pl_cf/Hb_elisa_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wonju\Documents\WJ_Python\QM_Develop_Machinelearning\ELISA_4pl_cf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D492A054-3DAD-442E-B987-E64CB1BC946E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F0E26A-D3EB-4DFE-B662-D7FD9BCF05D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B394ACD4-5E80-4743-8F8D-9C41648EC578}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B394ACD4-5E80-4743-8F8D-9C41648EC578}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,18 +160,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -192,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -230,13 +224,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -258,20 +270,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1229,15 +1244,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B99C7CF-313F-4BB1-BE91-DBFB06AE8C4C}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" ht="17.25" thickBot="1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1300,242 +1315,379 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="4">
+      <c r="A2" s="9">
+        <v>25</v>
+      </c>
+      <c r="B2" s="9">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>23.5</v>
+      </c>
+      <c r="D2">
+        <v>23.5</v>
+      </c>
+      <c r="E2" s="5">
         <v>20</v>
       </c>
-      <c r="B2" s="4">
+      <c r="F2" s="5">
         <v>20</v>
       </c>
-      <c r="C2" s="5">
+      <c r="G2" s="6">
         <v>20</v>
       </c>
-      <c r="D2" s="5">
+      <c r="H2" s="6">
         <v>20</v>
       </c>
-      <c r="E2" s="6">
-        <v>20</v>
-      </c>
-      <c r="F2" s="6">
-        <v>20</v>
-      </c>
-      <c r="G2" s="7">
-        <v>20</v>
-      </c>
-      <c r="H2" s="7">
-        <v>20</v>
-      </c>
-      <c r="K2" s="8">
-        <v>2.7909999999999999</v>
-      </c>
-      <c r="L2" s="8">
-        <v>2.64</v>
-      </c>
-      <c r="M2" s="9">
-        <v>1.944</v>
-      </c>
-      <c r="N2" s="9">
-        <v>2.0270000000000001</v>
-      </c>
-      <c r="O2" s="10">
+      <c r="K2" s="11">
+        <v>2.1320000000000001</v>
+      </c>
+      <c r="L2" s="11">
+        <v>2.1659999999999999</v>
+      </c>
+      <c r="M2" s="11">
+        <v>2.456</v>
+      </c>
+      <c r="N2" s="11">
+        <v>2.4169999999999998</v>
+      </c>
+      <c r="O2" s="7">
         <v>2.1539999999999999</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="7">
         <v>2.0049999999999999</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="8">
         <v>2.4470000000000001</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="8">
         <v>2.403</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="4">
-        <v>12</v>
+        <v>22.5</v>
       </c>
       <c r="B3" s="4">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5">
+        <v>22.5</v>
+      </c>
+      <c r="C3">
+        <v>21.15</v>
+      </c>
+      <c r="D3">
+        <v>21.15</v>
+      </c>
+      <c r="E3" s="5">
         <v>10</v>
       </c>
-      <c r="D3" s="5">
+      <c r="F3" s="5">
         <v>10</v>
       </c>
-      <c r="E3" s="6">
+      <c r="G3" s="6">
         <v>10</v>
       </c>
-      <c r="F3" s="6">
+      <c r="H3" s="6">
         <v>10</v>
       </c>
-      <c r="G3" s="7">
-        <v>10</v>
-      </c>
-      <c r="H3" s="7">
-        <v>10</v>
-      </c>
-      <c r="K3" s="8">
-        <v>2.073</v>
-      </c>
-      <c r="L3" s="8">
-        <v>1.978</v>
-      </c>
-      <c r="M3" s="9">
-        <v>1.0669999999999999</v>
-      </c>
-      <c r="N3" s="9">
-        <v>1.1140000000000001</v>
-      </c>
-      <c r="O3" s="10">
+      <c r="K3" s="11">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="L3" s="11">
+        <v>1.948</v>
+      </c>
+      <c r="M3" s="11">
+        <v>2.2589999999999999</v>
+      </c>
+      <c r="N3" s="11">
+        <v>2.2679999999999998</v>
+      </c>
+      <c r="O3" s="7">
         <v>1.175</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="7">
         <v>1.232</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="8">
         <v>1.452</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="8">
         <v>1.3320000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="4">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>18.799999999999997</v>
+      </c>
+      <c r="D4">
+        <v>18.799999999999997</v>
+      </c>
+      <c r="E4" s="5">
         <v>5</v>
       </c>
-      <c r="D4" s="5">
+      <c r="F4" s="5">
         <v>5</v>
       </c>
-      <c r="E4" s="6">
+      <c r="G4" s="6">
         <v>5</v>
       </c>
-      <c r="F4" s="6">
+      <c r="H4" s="6">
         <v>5</v>
       </c>
-      <c r="G4" s="7">
-        <v>5</v>
-      </c>
-      <c r="H4" s="7">
-        <v>5</v>
-      </c>
-      <c r="K4" s="8">
-        <v>1.1619999999999999</v>
-      </c>
-      <c r="L4" s="8">
-        <v>1.1970000000000001</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="N4" s="9">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="O4" s="10">
+      <c r="K4" s="11">
+        <v>1.849</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1.7889999999999999</v>
+      </c>
+      <c r="M4" s="11">
+        <v>2.0619999999999998</v>
+      </c>
+      <c r="N4" s="11">
+        <v>2.09</v>
+      </c>
+      <c r="O4" s="7">
         <v>0.67400000000000004</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="7">
         <v>0.68</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="8">
         <v>0.71499999999999997</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="8">
         <v>0.67800000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="4">
-        <v>3</v>
+        <v>17.5</v>
       </c>
       <c r="B5" s="4">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="C5">
+        <v>16.45</v>
+      </c>
+      <c r="D5">
+        <v>16.45</v>
+      </c>
+      <c r="E5" s="5">
         <v>2.5</v>
       </c>
-      <c r="D5" s="5">
+      <c r="F5" s="5">
         <v>2.5</v>
       </c>
-      <c r="E5" s="6">
+      <c r="G5" s="6">
         <v>2.5</v>
       </c>
-      <c r="F5" s="6">
+      <c r="H5" s="6">
         <v>2.5</v>
       </c>
-      <c r="G5" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="M5" s="9">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="N5" s="9">
+      <c r="K5" s="11">
+        <v>1.621</v>
+      </c>
+      <c r="L5" s="11">
+        <v>1.623</v>
+      </c>
+      <c r="M5" s="11">
+        <v>1.87</v>
+      </c>
+      <c r="N5" s="11">
+        <v>1.879</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="P5" s="7">
         <v>0.35499999999999998</v>
       </c>
-      <c r="O5" s="10">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="P5" s="10">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="8">
         <v>0.39300000000000002</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="8">
         <v>0.38900000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>14.1</v>
+      </c>
+      <c r="D6">
+        <v>14.1</v>
+      </c>
+      <c r="E6" s="5">
         <v>1.25</v>
       </c>
-      <c r="D6" s="5">
+      <c r="F6" s="5">
         <v>1.25</v>
       </c>
-      <c r="E6" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="K6" s="8">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="N6" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="O6" s="10">
+      <c r="K6" s="11">
+        <v>1.4470000000000001</v>
+      </c>
+      <c r="L6" s="11">
+        <v>1.4330000000000001</v>
+      </c>
+      <c r="M6" s="11">
+        <v>1.625</v>
+      </c>
+      <c r="N6" s="11">
+        <v>1.613</v>
+      </c>
+      <c r="O6" s="7">
         <v>0.22600000000000001</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="7">
         <v>0.23799999999999999</v>
       </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="C7">
+        <v>11.75</v>
+      </c>
+      <c r="D7">
+        <v>11.75</v>
+      </c>
+      <c r="K7" s="11">
+        <v>1.2609999999999999</v>
+      </c>
+      <c r="L7" s="11">
+        <v>1.224</v>
+      </c>
+      <c r="M7" s="11">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="N7" s="11">
+        <v>1.3580000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="4">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>9.3999999999999986</v>
+      </c>
+      <c r="D8">
+        <v>9.3999999999999986</v>
+      </c>
+      <c r="K8" s="11">
+        <v>1.036</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0.996</v>
+      </c>
+      <c r="M8" s="11">
+        <v>1.1140000000000001</v>
+      </c>
+      <c r="N8" s="11">
+        <v>1.123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="B9" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="C9">
+        <v>7.05</v>
+      </c>
+      <c r="D9">
+        <v>7.05</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0.84299999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="D10">
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0.495</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0.497</v>
+      </c>
+      <c r="M10" s="11">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="N10" s="11">
+        <v>0.58299999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="17.25" thickBot="1">
+      <c r="A11" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="B11" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="C11">
+        <v>2.3499999999999996</v>
+      </c>
+      <c r="D11">
+        <v>2.3499999999999996</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="C14" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ELISA_4pl_cf/Hb_elisa_test.xlsx
+++ b/ELISA_4pl_cf/Hb_elisa_test.xlsx
@@ -1,33 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wonju\Documents\WJ_Python\QM_Develop_Machinelearning\ELISA_4pl_cf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F0E26A-D3EB-4DFE-B662-D7FD9BCF05D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA838414-0B4D-44BD-8B8C-D0B4245037BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B394ACD4-5E80-4743-8F8D-9C41648EC578}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{B394ACD4-5E80-4743-8F8D-9C41648EC578}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t>Conc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,7 +129,7 @@
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +167,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -186,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -242,13 +260,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -288,6 +368,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1246,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B99C7CF-313F-4BB1-BE91-DBFB06AE8C4C}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1694,4 +1782,329 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BC496A-A3F6-42BC-A7CB-B7964BDC5CA0}">
+  <dimension ref="A1:T11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="17.25" thickBot="1">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="K2" s="13">
+        <v>0</v>
+      </c>
+      <c r="L2" s="14">
+        <v>0</v>
+      </c>
+      <c r="M2" s="20">
+        <v>0</v>
+      </c>
+      <c r="N2" s="20">
+        <v>0</v>
+      </c>
+      <c r="O2" s="20">
+        <v>0</v>
+      </c>
+      <c r="P2" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="20">
+        <v>0</v>
+      </c>
+      <c r="R2" s="8"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="K3" s="15">
+        <v>3.1999999999999994E-2</v>
+      </c>
+      <c r="L3" s="16">
+        <v>2.0999999999999991E-2</v>
+      </c>
+      <c r="M3" s="19">
+        <v>2.609</v>
+      </c>
+      <c r="N3" s="19">
+        <v>3.5049999999999999</v>
+      </c>
+      <c r="O3" s="20">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="P3" s="20">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="Q3" s="20">
+        <v>1.631</v>
+      </c>
+      <c r="R3" s="8"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>27</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="K4" s="15">
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="L4" s="16">
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="M4" s="19">
+        <v>3.3029999999999999</v>
+      </c>
+      <c r="N4" s="19">
+        <v>3.1080000000000001</v>
+      </c>
+      <c r="O4" s="19">
+        <v>3.2079999999999997</v>
+      </c>
+      <c r="P4" s="20">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>2.5680000000000001</v>
+      </c>
+      <c r="R4" s="8"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>52</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="K5" s="15">
+        <v>0.253</v>
+      </c>
+      <c r="L5" s="16">
+        <v>0.249</v>
+      </c>
+      <c r="M5" s="19">
+        <v>2.754</v>
+      </c>
+      <c r="N5" s="19">
+        <v>3.7429999999999999</v>
+      </c>
+      <c r="O5" s="20">
+        <v>1.8220000000000001</v>
+      </c>
+      <c r="P5" s="20">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>2.4929999999999999</v>
+      </c>
+      <c r="R5" s="8"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6">
+        <v>97</v>
+      </c>
+      <c r="B6">
+        <v>97</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="L6" s="16">
+        <v>0.72900000000000009</v>
+      </c>
+      <c r="M6" s="19">
+        <v>2.6429999999999998</v>
+      </c>
+      <c r="N6" s="19">
+        <v>3.319</v>
+      </c>
+      <c r="O6" s="19">
+        <v>3.3759999999999999</v>
+      </c>
+      <c r="P6" s="20">
+        <v>0.187</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>1.6930000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7">
+        <v>175</v>
+      </c>
+      <c r="B7">
+        <v>175</v>
+      </c>
+      <c r="K7" s="15">
+        <v>2.0830000000000002</v>
+      </c>
+      <c r="L7" s="16">
+        <v>2.4349999999999996</v>
+      </c>
+      <c r="M7" s="20">
+        <v>1.3110000000000002</v>
+      </c>
+      <c r="N7" s="20">
+        <v>1.1819999999999999</v>
+      </c>
+      <c r="O7" s="20">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="P7" s="20">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="Q7" s="20">
+        <v>0.751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="17.25" thickBot="1">
+      <c r="A8">
+        <v>335</v>
+      </c>
+      <c r="B8">
+        <v>335</v>
+      </c>
+      <c r="K8" s="17">
+        <v>3.8490000000000002</v>
+      </c>
+      <c r="L8" s="18">
+        <v>3.8329999999999997</v>
+      </c>
+      <c r="M8" s="20">
+        <v>1.8960000000000001</v>
+      </c>
+      <c r="N8" s="19">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="O8" s="20">
+        <v>1.518</v>
+      </c>
+      <c r="P8" s="20">
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>8.2000000000000017E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="20">
+        <v>0.47300000000000003</v>
+      </c>
+      <c r="N9" s="19">
+        <v>3.3580000000000001</v>
+      </c>
+      <c r="O9" s="20">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="P9" s="20">
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>0.47000000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:20" ht="17.25" thickBot="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>